--- a/medicine/Psychotrope/Green_Dragon/Green_Dragon.xlsx
+++ b/medicine/Psychotrope/Green_Dragon/Green_Dragon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Green Dragon est une boisson alcoolisée composée d'un mélange de cannabis (têtes, feuilles et tige) et d'alcool, chauffé puis macéré. Il tire son nom de la couleur vert glauque de la solution. Il peut être utilisé dans la production du nabiximols.
 </t>
@@ -511,9 +523,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principe réside dans le fait que le tétrahydrocannabinol (THC) et d'autres cannabinoïdes sont solubles dans l'alcool. Pour préparer du Green Dragon, des parties de la plante, en général les feuilles de manucure (petites feuilles de la plante) ou les têtes (fleurs de la plante contenant plus de THC que les feuilles), sont mélangées avec de l'éthanol (ou éventuellement avec un alcool fort comme le rhum ou la vodka). Elles sont ensuite chauffées au four ou au bain-marie pour accélérer le processus de décarboxylation du cannabis et augmenter le taux de THC dans la solution, puis macérées pendant plusieurs semaines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principe réside dans le fait que le tétrahydrocannabinol (THC) et d'autres cannabinoïdes sont solubles dans l'alcool. Pour préparer du Green Dragon, des parties de la plante, en général les feuilles de manucure (petites feuilles de la plante) ou les têtes (fleurs de la plante contenant plus de THC que les feuilles), sont mélangées avec de l'éthanol (ou éventuellement avec un alcool fort comme le rhum ou la vodka). Elles sont ensuite chauffées au four ou au bain-marie pour accélérer le processus de décarboxylation du cannabis et augmenter le taux de THC dans la solution, puis macérées pendant plusieurs semaines,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Consommation et effets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Green Dragon est généralement consommé par voie orale, plus rarement par application sur la peau. Ce mode de consommation est utilisé par des personnes souhaitant consommer du cannabis sans fumer, par exemple pour diminuer le risques de cancer dû à la combustion du cannabis ou des autres produits contenus dans le joint.
-L'effet psychotrope obtenu est similaire à celui du cannabis fumé additionné à celui de l'alcool, avec une intensité et une durée accrues[3]. De ce fait, il est dangereux et déconseillé de conduire après en avoir consommé.
+L'effet psychotrope obtenu est similaire à celui du cannabis fumé additionné à celui de l'alcool, avec une intensité et une durée accrues. De ce fait, il est dangereux et déconseillé de conduire après en avoir consommé.
 </t>
         </is>
       </c>
